--- a/data-unused/giles.xlsx
+++ b/data-unused/giles.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18060" windowHeight="12405"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14124" windowHeight="6348" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="straw" sheetId="1" r:id="rId1"/>
+    <sheet name="emergence" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>1973b</t>
+  </si>
+  <si>
+    <t>1973a</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,11 +361,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -675,24 +684,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1970</v>
+      </c>
+      <c r="C1">
+        <v>1971</v>
+      </c>
+      <c r="D1">
+        <v>1972</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1974</v>
+      </c>
+      <c r="H1">
+        <v>1975</v>
+      </c>
+      <c r="I1">
+        <v>1976</v>
+      </c>
+      <c r="J1">
+        <v>1977</v>
+      </c>
+      <c r="K1">
+        <v>1978</v>
+      </c>
+      <c r="L1">
+        <v>1979</v>
+      </c>
+      <c r="M1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>264</v>
+      </c>
+      <c r="B2">
+        <v>156</v>
+      </c>
+      <c r="C2">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>271</v>
+      </c>
+      <c r="B3">
+        <v>155</v>
+      </c>
+      <c r="C3">
+        <v>146</v>
+      </c>
+      <c r="D3">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>155</v>
+      </c>
+      <c r="F3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>277</v>
+      </c>
+      <c r="B4">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>137</v>
+      </c>
+      <c r="D4">
+        <v>143</v>
+      </c>
+      <c r="E4">
+        <v>141</v>
+      </c>
+      <c r="F4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>303</v>
+      </c>
+      <c r="B5">
+        <v>159</v>
+      </c>
+      <c r="C5">
+        <v>157</v>
+      </c>
+      <c r="D5">
+        <v>154</v>
+      </c>
+      <c r="E5">
+        <v>157</v>
+      </c>
+      <c r="F5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>590</v>
+      </c>
+      <c r="C6">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <v>161</v>
+      </c>
+      <c r="E6">
+        <v>162</v>
+      </c>
+      <c r="F6">
+        <v>164</v>
+      </c>
+      <c r="G6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>788</v>
+      </c>
+      <c r="E7">
+        <v>157</v>
+      </c>
+      <c r="F7">
+        <v>157</v>
+      </c>
+      <c r="G7">
+        <v>154</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>789</v>
+      </c>
+      <c r="E8">
+        <v>152</v>
+      </c>
+      <c r="F8">
+        <v>152</v>
+      </c>
+      <c r="G8">
+        <v>147</v>
+      </c>
+      <c r="H8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>929</v>
+      </c>
+      <c r="G9">
+        <v>149</v>
+      </c>
+      <c r="H9">
+        <v>157</v>
+      </c>
+      <c r="I9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>988</v>
+      </c>
+      <c r="G10">
+        <v>165</v>
+      </c>
+      <c r="H10">
+        <v>169</v>
+      </c>
+      <c r="I10">
+        <v>162</v>
+      </c>
+      <c r="J10">
+        <v>168</v>
+      </c>
+      <c r="K10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1189</v>
+      </c>
+      <c r="G11">
+        <v>154</v>
+      </c>
+      <c r="H11">
+        <v>170</v>
+      </c>
+      <c r="I11">
+        <v>158</v>
+      </c>
+      <c r="J11">
+        <v>168</v>
+      </c>
+      <c r="K11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1567</v>
+      </c>
+      <c r="I12">
+        <v>153</v>
+      </c>
+      <c r="L12">
+        <v>166</v>
+      </c>
+      <c r="M12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1571</v>
+      </c>
+      <c r="I13">
+        <v>151</v>
+      </c>
+      <c r="L13">
+        <v>169</v>
+      </c>
+      <c r="M13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2079</v>
+      </c>
+      <c r="I14">
+        <v>148</v>
+      </c>
+      <c r="J14">
+        <v>161</v>
+      </c>
+      <c r="K14">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2098</v>
+      </c>
+      <c r="I15">
+        <v>134</v>
+      </c>
+      <c r="J15">
+        <v>143</v>
+      </c>
+      <c r="K15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2194</v>
+      </c>
+      <c r="J16">
+        <v>161</v>
+      </c>
+      <c r="K16">
+        <v>163</v>
+      </c>
+      <c r="L16">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2208</v>
+      </c>
+      <c r="J17">
+        <v>157</v>
+      </c>
+      <c r="K17">
+        <v>158</v>
+      </c>
+      <c r="L17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2217</v>
+      </c>
+      <c r="J18">
+        <v>161</v>
+      </c>
+      <c r="K18">
+        <v>158</v>
+      </c>
+      <c r="L18">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2495</v>
+      </c>
+      <c r="K19">
+        <v>153</v>
+      </c>
+      <c r="L19">
+        <v>159</v>
+      </c>
+      <c r="M19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2499</v>
+      </c>
+      <c r="K20">
+        <v>156</v>
+      </c>
+      <c r="L20">
+        <v>162</v>
+      </c>
+      <c r="M20">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>